--- a/Data/20170408_Sampling-Data.xlsx
+++ b/Data/20170408_Sampling-Data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sample Key" sheetId="1" r:id="rId1"/>
     <sheet name="Morts" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sample Key'!$2:$2</definedName>
@@ -1317,8 +1318,8 @@
   <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3365,7 +3366,9 @@
       <c r="B105" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -3446,7 +3449,9 @@
       <c r="B114" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3">
+        <v>2</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -3527,7 +3532,9 @@
       <c r="B123" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -3608,7 +3615,9 @@
       <c r="B132" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3">
+        <v>4</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -3689,7 +3698,9 @@
       <c r="B142" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3">
+        <v>5</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -5041,6 +5052,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
     <mergeCell ref="I35:I37"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I22"/>
@@ -5048,12 +5065,6 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5063,4 +5074,23 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/20170408_Sampling-Data.xlsx
+++ b/Data/20170408_Sampling-Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25500" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="0" windowWidth="25500" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Key" sheetId="1" r:id="rId1"/>
@@ -1318,8 +1318,8 @@
   <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5052,12 +5052,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
     <mergeCell ref="I35:I37"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I22"/>
@@ -5065,6 +5059,12 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data/20170408_Sampling-Data.xlsx
+++ b/Data/20170408_Sampling-Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="25500" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="9160" yWindow="240" windowWidth="16440" windowHeight="15280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Key" sheetId="1" r:id="rId1"/>
@@ -1318,8 +1318,8 @@
   <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3875,10 +3875,9 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="15" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:M8"/>
+      <pane xSplit="11440" topLeftCell="J1" activePane="topRight"/>
+      <selection activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5052,6 +5051,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
     <mergeCell ref="I35:I37"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I22"/>
@@ -5059,12 +5064,6 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data/20170408_Sampling-Data.xlsx
+++ b/Data/20170408_Sampling-Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="240" windowWidth="16440" windowHeight="15280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11500" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Key" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="196">
   <si>
     <t>Notes</t>
   </si>
@@ -594,13 +594,42 @@
   </si>
   <si>
     <t>Emaciated - very very little tissue (see photo)</t>
+  </si>
+  <si>
+    <t>RNA-Seq?</t>
+  </si>
+  <si>
+    <t>x female</t>
+  </si>
+  <si>
+    <t>x herm</t>
+  </si>
+  <si>
+    <t>x male</t>
+  </si>
+  <si>
+    <t>x male backup</t>
+  </si>
+  <si>
+    <t>x male (not great)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,175 +715,184 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="132">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="132" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="132" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="132" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="132">
+  <cellStyles count="135">
+    <cellStyle name="Comma" xfId="132" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -920,6 +958,7 @@
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -985,6 +1024,7 @@
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="35" builtinId="5"/>
   </cellStyles>
@@ -1315,2552 +1355,2592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="80.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="80.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="29" customHeight="1">
+      <c r="B1" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="63" customHeight="1">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="63" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="14">
         <v>42</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>12.8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10">
+      <c r="B4" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="14">
         <v>39</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>10.1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:10">
+      <c r="B5" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="14">
         <v>28</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>4.7</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:10">
+      <c r="B6" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="14">
         <v>35</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>7.4</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>3</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="14">
         <v>30</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>7.3</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>4</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="14">
         <v>40</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>5</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:10">
+      <c r="B9" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="14">
         <v>39</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11.2</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>6</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:10">
+      <c r="B10" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="14">
         <v>33</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:10">
+      <c r="B11" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="14">
         <v>31</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>10.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:10">
+      <c r="B12" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="14">
         <v>42</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:10">
+      <c r="B13" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="14">
         <v>32.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="14">
         <v>32</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:10">
+      <c r="B15" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="14">
         <v>35</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:10">
+      <c r="B16" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="14">
         <v>37.5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:7">
+      <c r="B17" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="14">
         <v>32</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:7">
+      <c r="B18" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="14">
         <v>39.5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:7">
+      <c r="B19" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="14">
         <v>44</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>12.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:7">
+      <c r="B20" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="14">
         <v>39</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:7">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="14">
         <v>35</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="14">
         <v>36</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:7">
+      <c r="B24" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="14">
         <v>31</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:7">
+      <c r="B25" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="14">
         <v>32</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>9.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="14">
         <v>30</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:7">
+      <c r="B27" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="14">
         <v>33</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:7">
+      <c r="B28" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="14">
         <v>34</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>7.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:7">
+      <c r="B29" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="14">
         <v>40</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:7">
+      <c r="B30" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="14">
         <v>32</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>9.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="14">
         <v>39</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>7.7</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D32" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="14">
         <v>26</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="2:7">
+      <c r="B33" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="14">
         <v>35</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="14">
         <v>42</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>7.7</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="14">
         <v>41</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="14">
         <v>39.1</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>7.9</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="2:7">
+      <c r="B37" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="14">
         <v>34</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="2:7">
+      <c r="B38" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D38" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="14">
         <v>41</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>8.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="2:7">
+      <c r="B39" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D39" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="14">
         <v>36</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="3"/>
+    <row r="40" spans="2:7">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="14">
         <v>42</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9.1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="2:7">
+      <c r="B42" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="14">
         <v>36</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="2:7">
+      <c r="B43" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D43" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="14">
         <v>26</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="2:7">
+      <c r="B44" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="14">
         <v>34</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6.1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="2:7">
+      <c r="B45" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="14">
         <v>46</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="2:7">
+      <c r="B46" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="14">
         <v>33</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="2:7">
+      <c r="B47" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="14">
         <v>38</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="2:7">
+      <c r="B48" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="14">
         <v>33</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="1:8">
+      <c r="B49" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="14">
         <v>35</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="1:8">
+      <c r="B50" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="14">
         <v>34</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:8">
+      <c r="B51" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="14">
         <v>37</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="1:8">
+      <c r="B52" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="14">
         <v>37</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6.8</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="1:8">
+      <c r="B53" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D53" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="14">
         <v>29.5</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:8">
+      <c r="B54" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D54" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="14">
         <v>35</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7.3</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:8">
+      <c r="B55" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="14">
         <v>38</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="1:8">
+      <c r="B56" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D56" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="14">
         <v>28</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>2.9</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="1:8">
+      <c r="B57" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="14">
         <v>35.5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="1:8">
+      <c r="B58" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="12">
         <v>38.5</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G58" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="59" spans="1:8">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="14">
         <v>38</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:8">
+      <c r="B61" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D61" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="14">
         <v>31</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="1:8">
+      <c r="B62" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="14">
         <v>34</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    <row r="63" spans="1:8">
+      <c r="B63" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="14">
         <v>37</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>7.8</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="14">
         <v>35</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <v>7.1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="65" spans="1:8">
+      <c r="B65" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D65" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="14">
         <v>34</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>7.7</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D66" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="14">
         <v>32</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D67" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="14">
         <v>40</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>12.2</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D68" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="14">
         <v>33</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="1:8">
+      <c r="B69" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="14">
         <v>34.5</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="3">
         <v>5.8</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D70" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="14">
         <v>39</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="71" spans="1:8">
+      <c r="B71" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D71" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="3">
+      <c r="F71" s="14">
         <v>30.1</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D72" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="14">
         <v>39.1</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B73" s="3" t="s">
+    <row r="73" spans="1:8">
+      <c r="B73" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D73" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="14">
         <v>30.5</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G73" s="3">
         <v>5.8</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D74" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="14">
         <v>43</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="3">
         <v>12.4</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="1:8">
+      <c r="B75" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D75" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="14">
         <v>43</v>
       </c>
-      <c r="F75" s="3">
+      <c r="G75" s="3">
         <v>12.8</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B76" s="3" t="s">
+    <row r="76" spans="1:8">
+      <c r="B76" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="14">
         <v>39</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="1:8">
+      <c r="B77" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D77" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="14">
         <v>39</v>
       </c>
-      <c r="F77" s="3">
+      <c r="G77" s="3">
         <v>7.3</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="79" spans="1:8">
+      <c r="B79" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="3">
+      <c r="F79" s="14">
         <v>37</v>
       </c>
-      <c r="F79" s="3">
+      <c r="G79" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B80" s="3" t="s">
+    <row r="80" spans="1:8">
+      <c r="B80" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="14">
         <v>25</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G80" s="3">
         <v>2.7</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="81" spans="2:8">
+      <c r="B81" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="14">
         <v>35</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8.1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="2:8">
+      <c r="B82" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="14">
         <v>26</v>
       </c>
-      <c r="F82" s="3">
+      <c r="G82" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B83" s="3" t="s">
+    <row r="83" spans="2:8">
+      <c r="B83" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="14">
         <v>27</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B84" s="3" t="s">
+    <row r="84" spans="2:8">
+      <c r="B84" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="3">
+      <c r="F84" s="14">
         <v>35</v>
       </c>
-      <c r="F84" s="3">
+      <c r="G84" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B85" s="3" t="s">
+    <row r="85" spans="2:8">
+      <c r="B85" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="14">
         <v>27.5</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G85" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B86" s="3" t="s">
+    <row r="86" spans="2:8">
+      <c r="B86" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E86" s="3">
+      <c r="F86" s="14">
         <v>31.9</v>
       </c>
-      <c r="F86" s="3">
+      <c r="G86" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B87" s="3" t="s">
+    <row r="87" spans="2:8">
+      <c r="B87" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="14">
         <v>27.1</v>
       </c>
-      <c r="F87" s="3">
+      <c r="G87" s="3">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B88" s="3" t="s">
+    <row r="88" spans="2:8">
+      <c r="B88" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="3">
+      <c r="F88" s="14">
         <v>24.9</v>
       </c>
-      <c r="F88" s="3">
+      <c r="G88" s="3">
         <v>2.7</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B89" s="3" t="s">
+    <row r="89" spans="2:8">
+      <c r="B89" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="14">
         <v>30.6</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B90" s="3" t="s">
+    <row r="90" spans="2:8">
+      <c r="B90" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E90" s="3">
+      <c r="F90" s="14">
         <v>37.1</v>
       </c>
-      <c r="F90" s="3">
+      <c r="G90" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B92" s="3" t="s">
+    <row r="92" spans="2:8">
+      <c r="B92" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="14">
         <v>27.5</v>
       </c>
-      <c r="F92" s="2">
+      <c r="G92" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B93" s="3" t="s">
+    <row r="93" spans="2:8">
+      <c r="B93" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="14">
         <v>27.5</v>
       </c>
-      <c r="F93" s="3">
+      <c r="G93" s="3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B94" s="3" t="s">
+    <row r="94" spans="2:8">
+      <c r="B94" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="14">
         <v>35</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6.8</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:8">
+      <c r="B95" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E95" s="3">
+      <c r="F95" s="14">
         <v>29.5</v>
       </c>
-      <c r="F95" s="3">
+      <c r="G95" s="3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B96" s="3" t="s">
+    <row r="96" spans="2:8">
+      <c r="B96" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="14">
         <v>25</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>2.5</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B97" s="3" t="s">
+    <row r="97" spans="2:7">
+      <c r="B97" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E97" s="3">
+      <c r="F97" s="14">
         <v>32</v>
       </c>
-      <c r="F97" s="3">
+      <c r="G97" s="3">
         <v>7.7</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B98" s="3" t="s">
+    <row r="98" spans="2:7">
+      <c r="B98" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="12">
         <v>30.5</v>
       </c>
-      <c r="F98" s="3">
+      <c r="G98" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B99" s="3" t="s">
+    <row r="99" spans="2:7">
+      <c r="B99" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="12">
         <v>31.2</v>
       </c>
-      <c r="F99" s="3">
+      <c r="G99" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B100" s="3" t="s">
+    <row r="100" spans="2:7">
+      <c r="B100" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C100" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="12">
         <v>27.1</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3.1</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B101" s="3" t="s">
+    <row r="101" spans="2:7">
+      <c r="B101" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101" s="12">
         <v>31</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B102" s="3" t="s">
+    <row r="102" spans="2:7">
+      <c r="B102" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E102" s="2">
+      <c r="F102" s="12">
         <v>24.9</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2.8</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="6">
-        <v>42833</v>
-      </c>
-      <c r="B103" s="3" t="s">
+    <row r="103" spans="2:7">
+      <c r="B103" s="6">
+        <v>42833</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="12">
         <v>31</v>
       </c>
-      <c r="F103" s="3">
+      <c r="G103" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="B105" s="3" t="s">
+    <row r="105" spans="2:7">
+      <c r="C105" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C105" s="3">
+      <c r="D105" s="3">
         <v>1</v>
       </c>
-      <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="B106" s="3" t="s">
+      <c r="F105" s="14"/>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="C106" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="B107" s="3" t="s">
+      <c r="F106" s="14"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="C107" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="B108" s="3" t="s">
+      <c r="F107" s="14"/>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="C108" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="B109" s="3" t="s">
+      <c r="F108" s="14"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="C109" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="B110" s="3" t="s">
+      <c r="F109" s="14"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="C110" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="B111" s="3" t="s">
+      <c r="F110" s="14"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="C111" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="B112" s="3" t="s">
+      <c r="F111" s="14"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="C112" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="3" t="s">
+      <c r="F112" s="14"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="C113" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="3" t="s">
+      <c r="F113" s="14"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="3:7">
+      <c r="C114" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="3">
+      <c r="D114" s="3">
         <v>2</v>
       </c>
-      <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="3" t="s">
+      <c r="F114" s="14"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="3:7">
+      <c r="C115" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" s="3" t="s">
+      <c r="F115" s="14"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="3:7">
+      <c r="C116" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="3" t="s">
+      <c r="F116" s="14"/>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="3:7">
+      <c r="C117" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="3" t="s">
+      <c r="F117" s="14"/>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="3:7">
+      <c r="C118" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="3" t="s">
+      <c r="F118" s="14"/>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="3:7">
+      <c r="C119" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="3" t="s">
+      <c r="F119" s="14"/>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="3:7">
+      <c r="C120" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="3" t="s">
+      <c r="F120" s="14"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="3:7">
+      <c r="C121" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="3" t="s">
+      <c r="F121" s="14"/>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="3:7">
+      <c r="C122" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="3" t="s">
+      <c r="F122" s="14"/>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="3:7">
+      <c r="C123" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C123" s="3">
+      <c r="D123" s="3">
         <v>3</v>
       </c>
-      <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="3" t="s">
+      <c r="F123" s="14"/>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="3:7">
+      <c r="C124" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="3" t="s">
+      <c r="F124" s="14"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="3:7">
+      <c r="C125" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="3" t="s">
+      <c r="F125" s="14"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="3:7">
+      <c r="C126" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="3" t="s">
+      <c r="F126" s="14"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="3:7">
+      <c r="C127" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="3" t="s">
+      <c r="F127" s="14"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="3:7">
+      <c r="C128" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" s="3" t="s">
+      <c r="F128" s="14"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="3:7">
+      <c r="C129" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="3" t="s">
+      <c r="F129" s="14"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="3:7">
+      <c r="C130" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" s="3" t="s">
+      <c r="F130" s="14"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="3:7">
+      <c r="C131" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" s="3" t="s">
+      <c r="F131" s="14"/>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="3:7">
+      <c r="C132" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="3">
+      <c r="D132" s="3">
         <v>4</v>
       </c>
-      <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="B133" s="3" t="s">
+      <c r="F132" s="14"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="3:7">
+      <c r="C133" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="2:6">
-      <c r="B134" s="3" t="s">
+      <c r="F133" s="14"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="3:7">
+      <c r="C134" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="136" spans="2:6">
-      <c r="B136" s="3" t="s">
+      <c r="F134" s="14"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="136" spans="3:7">
+      <c r="C136" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="2:6">
-      <c r="B137" s="3" t="s">
+      <c r="F136" s="14"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="2:6">
-      <c r="B138" s="3" t="s">
+      <c r="F137" s="14"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="3:7">
+      <c r="C138" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="B139" s="3" t="s">
+      <c r="F138" s="14"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="3:7">
+      <c r="C139" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="2:6">
-      <c r="B140" s="3" t="s">
+      <c r="F139" s="14"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="C140" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="2:6">
-      <c r="B141" s="3" t="s">
+      <c r="F140" s="14"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="3:7">
+      <c r="C141" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="3" t="s">
+      <c r="F141" s="14"/>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="3:7">
+      <c r="C142" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C142" s="3">
+      <c r="D142" s="3">
         <v>5</v>
       </c>
-      <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="B143" s="3" t="s">
+      <c r="F142" s="14"/>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="C143" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="3" t="s">
+      <c r="F143" s="14"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="3:7">
+      <c r="C144" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="2:6">
-      <c r="B145" s="3" t="s">
+      <c r="F144" s="14"/>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="3:7">
+      <c r="C145" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="2:6">
-      <c r="B146" s="3" t="s">
+      <c r="F145" s="14"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="3:7">
+      <c r="C146" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="2:6">
-      <c r="B147" s="3" t="s">
+      <c r="F146" s="14"/>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="3:7">
+      <c r="C147" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="2:6">
-      <c r="B148" s="3" t="s">
+      <c r="F147" s="14"/>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="3:7">
+      <c r="C148" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="2:6">
-      <c r="B149" s="3" t="s">
+      <c r="F148" s="14"/>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="3:7">
+      <c r="C149" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="2:6">
-      <c r="B150" s="3" t="s">
+      <c r="F149" s="14"/>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="3:7">
+      <c r="C150" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="2:6">
-      <c r="B151" s="3" t="s">
+      <c r="F150" s="14"/>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="3:7">
+      <c r="C151" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="2:6">
-      <c r="B152" s="3" t="s">
+    <row r="152" spans="3:7">
+      <c r="C152" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="2:6">
-      <c r="B153" s="3" t="s">
+    <row r="153" spans="3:7">
+      <c r="C153" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="2:6">
-      <c r="B154" s="3" t="s">
+    <row r="154" spans="3:7">
+      <c r="C154" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="2:6">
-      <c r="B155" s="3" t="s">
+    <row r="155" spans="3:7">
+      <c r="C155" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="2:6">
-      <c r="B156" s="3" t="s">
+    <row r="156" spans="3:7">
+      <c r="C156" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="2:6">
-      <c r="B157" s="3" t="s">
+    <row r="157" spans="3:7">
+      <c r="C157" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="2:6">
-      <c r="B158" s="3" t="s">
+    <row r="158" spans="3:7">
+      <c r="C158" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="2:6">
-      <c r="B159" s="3" t="s">
+    <row r="159" spans="3:7">
+      <c r="C159" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="2:6">
-      <c r="B160" s="3" t="s">
+    <row r="160" spans="3:7">
+      <c r="C160" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="3" t="s">
+    <row r="161" spans="3:3">
+      <c r="C161" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="3" t="s">
+    <row r="162" spans="3:3">
+      <c r="C162" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="3" t="s">
+    <row r="163" spans="3:3">
+      <c r="C163" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="3" t="s">
+    <row r="164" spans="3:3">
+      <c r="C164" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="3" t="s">
+    <row r="165" spans="3:3">
+      <c r="C165" s="3" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="83" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="1048575" man="1"/>
+    <brk id="8" max="1048575" man="1"/>
   </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3922,10 +4002,10 @@
       <c r="I1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="12"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
@@ -3954,7 +4034,7 @@
         <f>D2-G2</f>
         <v>12</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="16">
         <f>SUM(H2:H4)</f>
         <v>34</v>
       </c>
@@ -3992,7 +4072,7 @@
         <f t="shared" ref="H3:H37" si="1">D3-G3</f>
         <v>11</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="16"/>
       <c r="L3" s="7">
         <v>1</v>
       </c>
@@ -4027,7 +4107,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="16"/>
       <c r="L4" s="7">
         <v>2</v>
       </c>
@@ -4062,7 +4142,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="16">
         <f>SUM(H5:H7)</f>
         <v>30</v>
       </c>
@@ -4100,7 +4180,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="16"/>
       <c r="L6" s="7">
         <v>4</v>
       </c>
@@ -4135,7 +4215,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="16"/>
       <c r="L7" s="7">
         <v>5</v>
       </c>
@@ -4170,7 +4250,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="16">
         <f t="shared" ref="I8" si="2">SUM(H8:H10)</f>
         <v>29</v>
       </c>
@@ -4208,7 +4288,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
@@ -4237,7 +4317,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
@@ -4266,7 +4346,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="16">
         <f>SUM(H11:H13)</f>
         <v>28</v>
       </c>
@@ -4298,7 +4378,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
@@ -4327,7 +4407,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
@@ -4356,7 +4436,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="16">
         <f t="shared" ref="I14" si="3">SUM(H14:H16)</f>
         <v>15</v>
       </c>
@@ -4388,7 +4468,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
@@ -4417,7 +4497,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
@@ -4446,7 +4526,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="16">
         <f t="shared" ref="I17" si="4">SUM(H17:H19)</f>
         <v>16</v>
       </c>
@@ -4478,7 +4558,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
@@ -4507,7 +4587,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
@@ -4536,7 +4616,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="16">
         <f>SUM(H20:H22)</f>
         <v>31</v>
       </c>
@@ -4568,7 +4648,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
@@ -4597,7 +4677,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
@@ -4626,7 +4706,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="16">
         <f t="shared" ref="I23" si="5">SUM(H23:H25)</f>
         <v>34</v>
       </c>
@@ -4658,7 +4738,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
@@ -4687,7 +4767,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
@@ -4716,7 +4796,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="16">
         <f>SUM(H26:H28)</f>
         <v>29</v>
       </c>
@@ -4748,7 +4828,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
@@ -4777,7 +4857,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
@@ -4806,7 +4886,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="16">
         <f>SUM(H29:H31)</f>
         <v>29</v>
       </c>
@@ -4838,7 +4918,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
@@ -4867,7 +4947,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I31" s="13"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
@@ -4896,7 +4976,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="16">
         <f t="shared" ref="I32" si="6">SUM(H32:H34)</f>
         <v>14</v>
       </c>
@@ -4928,7 +5008,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
@@ -4957,7 +5037,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
@@ -4986,7 +5066,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="16">
         <f>SUM(H35:H37)</f>
         <v>9</v>
       </c>
@@ -5018,7 +5098,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
@@ -5047,7 +5127,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Data/20170408_Sampling-Data.xlsx
+++ b/Data/20170408_Sampling-Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11500" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="11400" yWindow="0" windowWidth="13780" windowHeight="15440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Key" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="196">
   <si>
     <t>Notes</t>
   </si>
@@ -715,7 +715,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -849,6 +849,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -891,7 +899,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="143">
     <cellStyle name="Comma" xfId="132" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -959,6 +967,10 @@
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1025,6 +1037,10 @@
     <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="35" builtinId="5"/>
   </cellStyles>
@@ -1358,8 +1374,8 @@
   <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3443,493 +3459,798 @@
       </c>
     </row>
     <row r="105" spans="2:7">
+      <c r="B105" s="6">
+        <v>43203</v>
+      </c>
       <c r="C105" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D105" s="3">
-        <v>1</v>
+      <c r="D105" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="14"/>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="2:7">
+      <c r="B106" s="6">
+        <v>43203</v>
+      </c>
       <c r="C106" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E106" s="3"/>
       <c r="F106" s="14"/>
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="2:7">
+      <c r="B107" s="6">
+        <v>43203</v>
+      </c>
       <c r="C107" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E107" s="3"/>
       <c r="F107" s="14"/>
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="2:7">
+      <c r="B108" s="6">
+        <v>43203</v>
+      </c>
       <c r="C108" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="14"/>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="2:7">
+      <c r="B109" s="6">
+        <v>43203</v>
+      </c>
       <c r="C109" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E109" s="3"/>
       <c r="F109" s="14"/>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="2:7">
+      <c r="B110" s="6">
+        <v>43203</v>
+      </c>
       <c r="C110" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="14"/>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="2:7">
+      <c r="B111" s="6">
+        <v>43203</v>
+      </c>
       <c r="C111" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D111" s="3"/>
+      <c r="D111" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="14"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="2:7">
+      <c r="B112" s="6">
+        <v>43203</v>
+      </c>
       <c r="C112" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E112" s="3"/>
       <c r="F112" s="14"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="3:7">
+    <row r="113" spans="2:7">
+      <c r="B113" s="6">
+        <v>43203</v>
+      </c>
       <c r="C113" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="14"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="3:7">
+    <row r="114" spans="2:7">
+      <c r="B114" s="6">
+        <v>43203</v>
+      </c>
       <c r="C114" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D114" s="3">
-        <v>2</v>
+      <c r="D114" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="14"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="3:7">
+    <row r="115" spans="2:7">
+      <c r="B115" s="6">
+        <v>43203</v>
+      </c>
       <c r="C115" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E115" s="3"/>
       <c r="F115" s="14"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="3:7">
+    <row r="116" spans="2:7">
+      <c r="B116" s="6">
+        <v>43203</v>
+      </c>
       <c r="C116" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="14"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="3:7">
+    <row r="117" spans="2:7">
+      <c r="B117" s="6">
+        <v>43203</v>
+      </c>
       <c r="C117" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E117" s="3"/>
       <c r="F117" s="14"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="3:7">
+    <row r="118" spans="2:7">
+      <c r="B118" s="6">
+        <v>43203</v>
+      </c>
       <c r="C118" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E118" s="3"/>
       <c r="F118" s="14"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="3:7">
+    <row r="119" spans="2:7">
+      <c r="B119" s="6">
+        <v>43203</v>
+      </c>
       <c r="C119" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E119" s="3"/>
       <c r="F119" s="14"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="3:7">
+    <row r="120" spans="2:7">
+      <c r="B120" s="6">
+        <v>43203</v>
+      </c>
       <c r="C120" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E120" s="3"/>
       <c r="F120" s="14"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="3:7">
+    <row r="121" spans="2:7">
+      <c r="B121" s="6">
+        <v>43203</v>
+      </c>
       <c r="C121" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D121" s="3"/>
+      <c r="D121" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E121" s="3"/>
       <c r="F121" s="14"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="3:7">
+    <row r="122" spans="2:7">
+      <c r="B122" s="6">
+        <v>43203</v>
+      </c>
       <c r="C122" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E122" s="3"/>
       <c r="F122" s="14"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="3:7">
+    <row r="123" spans="2:7">
+      <c r="B123" s="6">
+        <v>43203</v>
+      </c>
       <c r="C123" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D123" s="3">
-        <v>3</v>
+      <c r="D123" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="14"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="3:7">
+    <row r="124" spans="2:7">
+      <c r="B124" s="6">
+        <v>43203</v>
+      </c>
       <c r="C124" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E124" s="3"/>
       <c r="F124" s="14"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="3:7">
+    <row r="125" spans="2:7">
+      <c r="B125" s="6">
+        <v>43203</v>
+      </c>
       <c r="C125" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E125" s="3"/>
       <c r="F125" s="14"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="3:7">
+    <row r="126" spans="2:7">
+      <c r="B126" s="6">
+        <v>43203</v>
+      </c>
       <c r="C126" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E126" s="3"/>
       <c r="F126" s="14"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="3:7">
+    <row r="127" spans="2:7">
+      <c r="B127" s="6">
+        <v>43203</v>
+      </c>
       <c r="C127" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E127" s="3"/>
       <c r="F127" s="14"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="3:7">
+    <row r="128" spans="2:7">
+      <c r="B128" s="6">
+        <v>43203</v>
+      </c>
       <c r="C128" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E128" s="3"/>
       <c r="F128" s="14"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="3:7">
+    <row r="129" spans="2:7">
+      <c r="B129" s="6">
+        <v>43203</v>
+      </c>
       <c r="C129" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E129" s="3"/>
       <c r="F129" s="14"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="3:7">
+    <row r="130" spans="2:7">
+      <c r="B130" s="6">
+        <v>43203</v>
+      </c>
       <c r="C130" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E130" s="3"/>
       <c r="F130" s="14"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="3:7">
+    <row r="131" spans="2:7">
+      <c r="B131" s="6">
+        <v>43203</v>
+      </c>
       <c r="C131" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E131" s="3"/>
       <c r="F131" s="14"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="3:7">
+    <row r="132" spans="2:7">
+      <c r="B132" s="6">
+        <v>43203</v>
+      </c>
       <c r="C132" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D132" s="3">
-        <v>4</v>
+      <c r="D132" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="14"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="3:7">
+    <row r="133" spans="2:7">
+      <c r="B133" s="6">
+        <v>43203</v>
+      </c>
       <c r="C133" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E133" s="3"/>
       <c r="F133" s="14"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="3:7">
+    <row r="134" spans="2:7">
+      <c r="B134" s="6">
+        <v>43203</v>
+      </c>
       <c r="C134" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E134" s="3"/>
       <c r="F134" s="14"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="136" spans="3:7">
+    <row r="136" spans="2:7">
+      <c r="B136" s="6">
+        <v>43203</v>
+      </c>
       <c r="C136" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E136" s="3"/>
       <c r="F136" s="14"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="3:7">
+    <row r="137" spans="2:7">
+      <c r="B137" s="6">
+        <v>43203</v>
+      </c>
       <c r="C137" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E137" s="3"/>
       <c r="F137" s="14"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="3:7">
+    <row r="138" spans="2:7">
+      <c r="B138" s="6">
+        <v>43203</v>
+      </c>
       <c r="C138" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E138" s="3"/>
       <c r="F138" s="14"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="3:7">
+    <row r="139" spans="2:7">
+      <c r="B139" s="6">
+        <v>43203</v>
+      </c>
       <c r="C139" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E139" s="3"/>
       <c r="F139" s="14"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="3:7">
+    <row r="140" spans="2:7">
+      <c r="B140" s="6">
+        <v>43203</v>
+      </c>
       <c r="C140" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E140" s="3"/>
       <c r="F140" s="14"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="3:7">
+    <row r="141" spans="2:7">
+      <c r="B141" s="6">
+        <v>43203</v>
+      </c>
       <c r="C141" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E141" s="3"/>
       <c r="F141" s="14"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="3:7">
+    <row r="142" spans="2:7">
+      <c r="B142" s="6">
+        <v>43203</v>
+      </c>
       <c r="C142" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D142" s="3">
-        <v>5</v>
+      <c r="D142" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="14"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="3:7">
+    <row r="143" spans="2:7">
+      <c r="B143" s="6">
+        <v>43203</v>
+      </c>
       <c r="C143" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E143" s="3"/>
       <c r="F143" s="14"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="3:7">
+    <row r="144" spans="2:7">
+      <c r="B144" s="6">
+        <v>43203</v>
+      </c>
       <c r="C144" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E144" s="3"/>
       <c r="F144" s="14"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="3:7">
+    <row r="145" spans="2:7">
+      <c r="B145" s="6">
+        <v>43203</v>
+      </c>
       <c r="C145" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E145" s="3"/>
       <c r="F145" s="14"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="3:7">
+    <row r="146" spans="2:7">
+      <c r="B146" s="6">
+        <v>43203</v>
+      </c>
       <c r="C146" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E146" s="3"/>
       <c r="F146" s="14"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="3:7">
+    <row r="147" spans="2:7">
+      <c r="B147" s="6">
+        <v>43203</v>
+      </c>
       <c r="C147" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D147" s="3"/>
+      <c r="D147" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E147" s="3"/>
       <c r="F147" s="14"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="3:7">
+    <row r="148" spans="2:7">
+      <c r="B148" s="6">
+        <v>43203</v>
+      </c>
       <c r="C148" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E148" s="3"/>
       <c r="F148" s="14"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="3:7">
+    <row r="149" spans="2:7">
+      <c r="B149" s="6">
+        <v>43203</v>
+      </c>
       <c r="C149" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E149" s="3"/>
       <c r="F149" s="14"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="3:7">
+    <row r="150" spans="2:7">
+      <c r="B150" s="6">
+        <v>43203</v>
+      </c>
       <c r="C150" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D150" s="3"/>
+      <c r="D150" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="E150" s="3"/>
       <c r="F150" s="14"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="3:7">
+    <row r="151" spans="2:7">
+      <c r="B151" s="6">
+        <v>43203</v>
+      </c>
       <c r="C151" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="152" spans="3:7">
+      <c r="D151" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="6">
+        <v>43203</v>
+      </c>
       <c r="C152" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="153" spans="3:7">
+      <c r="D152" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="6">
+        <v>43203</v>
+      </c>
       <c r="C153" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="154" spans="3:7">
+      <c r="D153" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="6">
+        <v>43203</v>
+      </c>
       <c r="C154" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="155" spans="3:7">
+      <c r="D154" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="6">
+        <v>43203</v>
+      </c>
       <c r="C155" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="156" spans="3:7">
+      <c r="D155" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="6">
+        <v>43203</v>
+      </c>
       <c r="C156" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="157" spans="3:7">
+      <c r="D156" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="6">
+        <v>43203</v>
+      </c>
       <c r="C157" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="158" spans="3:7">
+      <c r="D157" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="6">
+        <v>43203</v>
+      </c>
       <c r="C158" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="159" spans="3:7">
+      <c r="D158" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="6">
+        <v>43203</v>
+      </c>
       <c r="C159" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="160" spans="3:7">
+      <c r="D159" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="6">
+        <v>43203</v>
+      </c>
       <c r="C160" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="161" spans="3:3">
+      <c r="D160" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" s="6">
+        <v>43203</v>
+      </c>
       <c r="C161" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="162" spans="3:3">
+      <c r="D161" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="6">
+        <v>43203</v>
+      </c>
       <c r="C162" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="163" spans="3:3">
+      <c r="D162" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="6">
+        <v>43203</v>
+      </c>
       <c r="C163" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="164" spans="3:3">
+      <c r="D163" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" s="6">
+        <v>43203</v>
+      </c>
       <c r="C164" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="165" spans="3:3">
+      <c r="D164" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="6">
+        <v>43203</v>
+      </c>
       <c r="C165" s="3" t="s">
         <v>160</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3955,9 +4276,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="11440" topLeftCell="J1" activePane="topRight"/>
-      <selection activeCell="B33" sqref="B33"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5131,12 +5450,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
     <mergeCell ref="I35:I37"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I22"/>
@@ -5144,6 +5457,12 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data/20170408_Sampling-Data.xlsx
+++ b/Data/20170408_Sampling-Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/roberts-lab/O.lurida_Stress/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CCB1D0-5C6A-304C-A696-517AC379AF8A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="0" windowWidth="13780" windowHeight="15440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Key" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sample Key'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="208">
   <si>
     <t>Notes</t>
   </si>
@@ -612,17 +618,54 @@
   </si>
   <si>
     <t>x male (not great)</t>
+  </si>
+  <si>
+    <t>SN6</t>
+  </si>
+  <si>
+    <t>NF6</t>
+  </si>
+  <si>
+    <t>HL6</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>ambient</t>
+  </si>
+  <si>
+    <t>SN10</t>
+  </si>
+  <si>
+    <t>NF10</t>
+  </si>
+  <si>
+    <t>HL10</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>ALL mean</t>
+  </si>
+  <si>
+    <t>ALL sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -860,7 +903,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -898,6 +941,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="132" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="Comma" xfId="132" builtinId="3"/>
@@ -1046,6 +1091,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1370,32 +1423,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="80.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" customHeight="1">
+    <row r="1" spans="1:11" ht="29" customHeight="1">
       <c r="B1" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="63" customHeight="1">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="63" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -1425,7 +1479,7 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="B3" s="6">
         <v>42833</v>
       </c>
@@ -1451,7 +1505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="B4" s="6">
         <v>42833</v>
       </c>
@@ -1477,7 +1531,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="B5" s="6">
         <v>42833</v>
       </c>
@@ -1503,7 +1557,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="B6" s="6">
         <v>42833</v>
       </c>
@@ -1529,7 +1583,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="B7" s="6">
         <v>42833</v>
       </c>
@@ -1555,7 +1609,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="B8" s="6">
         <v>42833</v>
       </c>
@@ -1581,7 +1635,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="B9" s="6">
         <v>42833</v>
       </c>
@@ -1610,7 +1664,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="B10" s="6">
         <v>42833</v>
       </c>
@@ -1630,7 +1684,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="B11" s="6">
         <v>42833</v>
       </c>
@@ -1649,8 +1703,14 @@
       <c r="G11" s="3">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="6">
         <v>42833</v>
       </c>
@@ -1669,8 +1729,19 @@
       <c r="G12" s="3">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="17">
+        <f>AVERAGE(F3:F11)</f>
+        <v>35.222222222222221</v>
+      </c>
+      <c r="K12" s="17">
+        <f>AVERAGE(F12:F20)</f>
+        <v>37.055555555555557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="6">
         <v>42833</v>
       </c>
@@ -1689,8 +1760,19 @@
       <c r="G13" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="17">
+        <f>AVERAGE(F22:F30)</f>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="K13" s="17">
+        <f>AVERAGE(F31:F39)</f>
+        <v>37.011111111111113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="6">
         <v>42833</v>
       </c>
@@ -1709,8 +1791,19 @@
       <c r="G14" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="I14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" s="17">
+        <f>AVERAGE(F41:F49)</f>
+        <v>35.888888888888886</v>
+      </c>
+      <c r="K14" s="17">
+        <f>AVERAGE(F50:F58)</f>
+        <v>34.722222222222221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" s="6">
         <v>42833</v>
       </c>
@@ -1729,8 +1822,19 @@
       <c r="G15" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="I15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="17">
+        <f>AVERAGE(F60:F68)</f>
+        <v>34.888888888888886</v>
+      </c>
+      <c r="K15" s="17">
+        <f>AVERAGE(F69:F77)</f>
+        <v>37.466666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="6">
         <v>42833</v>
       </c>
@@ -1749,8 +1853,19 @@
       <c r="G16" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="17">
+        <f>AVERAGE(F79:F84)</f>
+        <v>30.833333333333332</v>
+      </c>
+      <c r="K16" s="17">
+        <f>AVERAGE(F85:F90)</f>
+        <v>29.849999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="B17" s="6">
         <v>42833</v>
       </c>
@@ -1769,8 +1884,19 @@
       <c r="G17" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="17">
+        <f>AVERAGE(F92:F97)</f>
+        <v>29.416666666666668</v>
+      </c>
+      <c r="K17" s="17">
+        <f>AVERAGE(F98:F103)</f>
+        <v>29.283333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="6">
         <v>42833</v>
       </c>
@@ -1789,8 +1915,11 @@
       <c r="G18" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="B19" s="6">
         <v>42833</v>
       </c>
@@ -1809,8 +1938,11 @@
       <c r="G19" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" s="6">
         <v>42833</v>
       </c>
@@ -1829,15 +1961,37 @@
       <c r="G20" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" s="17">
+        <f>AVERAGE(F3:F11,F22:F30,F41:F49,F60:F68,F79:F84,F92:F97)</f>
+        <v>33.71875</v>
+      </c>
+      <c r="K20" s="17">
+        <f>AVERAGE(F12:F20,F31:F39,F50:F58,F69:F77,F85:F90,F98:F103)</f>
+        <v>34.814583333333324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="14"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="18">
+        <f>STDEV(F3:F11,F22:F30,F41:F49,F60:F68,F79:F84,F92:F97)</f>
+        <v>4.7287106897371132</v>
+      </c>
+      <c r="K21" s="18">
+        <f>STDEV(F12:F20,F31:F39,F50:F58,F69:F77,F85:F90,F98:F103)</f>
+        <v>5.186192371292984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>191</v>
       </c>
@@ -1860,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>192</v>
       </c>
@@ -1883,7 +2037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:11">
       <c r="B24" s="6">
         <v>42833</v>
       </c>
@@ -1903,7 +2057,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:11">
       <c r="B25" s="6">
         <v>42833</v>
       </c>
@@ -1923,7 +2077,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
         <v>193</v>
       </c>
@@ -1946,7 +2100,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:11">
       <c r="B27" s="6">
         <v>42833</v>
       </c>
@@ -1966,7 +2120,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:11">
       <c r="B28" s="6">
         <v>42833</v>
       </c>
@@ -1986,7 +2140,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:11">
       <c r="B29" s="6">
         <v>42833</v>
       </c>
@@ -2006,7 +2160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:11">
       <c r="B30" s="6">
         <v>42833</v>
       </c>
@@ -2026,7 +2180,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
         <v>193</v>
       </c>
@@ -2049,7 +2203,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
         <v>192</v>
       </c>
@@ -4272,14 +4426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="7" bestFit="1" customWidth="1"/>
@@ -5450,6 +5604,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
     <mergeCell ref="I35:I37"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I22"/>
@@ -5457,12 +5617,6 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5475,14 +5629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
